--- a/Eğitim.xlsx
+++ b/Eğitim.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:J518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,7 @@
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,6 +499,11 @@
           <t>2025-06-22</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -522,6 +528,9 @@
       <c r="I2" t="n">
         <v>568100</v>
       </c>
+      <c r="J2" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +555,9 @@
       <c r="I3" t="n">
         <v>568100</v>
       </c>
+      <c r="J3" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -570,6 +582,9 @@
       <c r="I4" t="n">
         <v>568100</v>
       </c>
+      <c r="J4" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +609,9 @@
       <c r="I5" t="n">
         <v>971076</v>
       </c>
+      <c r="J5" t="n">
+        <v>971076</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -618,6 +636,9 @@
       <c r="I6" t="n">
         <v>800024</v>
       </c>
+      <c r="J6" t="n">
+        <v>800024</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -642,6 +663,9 @@
       <c r="I7" t="n">
         <v>519204</v>
       </c>
+      <c r="J7" t="n">
+        <v>519204</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -666,6 +690,9 @@
       <c r="I8" t="n">
         <v>1130750</v>
       </c>
+      <c r="J8" t="n">
+        <v>1130750</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -690,6 +717,9 @@
       <c r="I9" t="n">
         <v>1044715</v>
       </c>
+      <c r="J9" t="n">
+        <v>1044715</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -714,6 +744,9 @@
       <c r="I10" t="n">
         <v>754919</v>
       </c>
+      <c r="J10" t="n">
+        <v>754919</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -738,6 +771,9 @@
       <c r="I11" t="n">
         <v>733225</v>
       </c>
+      <c r="J11" t="n">
+        <v>733225</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -762,6 +798,9 @@
       <c r="I12" t="n">
         <v>568100</v>
       </c>
+      <c r="J12" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -786,6 +825,9 @@
       <c r="I13" t="n">
         <v>568100</v>
       </c>
+      <c r="J13" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -810,6 +852,9 @@
       <c r="I14" t="n">
         <v>526548</v>
       </c>
+      <c r="J14" t="n">
+        <v>526548</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -834,6 +879,9 @@
       <c r="I15" t="n">
         <v>568100</v>
       </c>
+      <c r="J15" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -858,6 +906,9 @@
       <c r="I16" t="n">
         <v>862400</v>
       </c>
+      <c r="J16" t="n">
+        <v>862400</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -882,6 +933,9 @@
       <c r="I17" t="n">
         <v>862400</v>
       </c>
+      <c r="J17" t="n">
+        <v>862400</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -906,6 +960,9 @@
       <c r="I18" t="n">
         <v>862400</v>
       </c>
+      <c r="J18" t="n">
+        <v>862400</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -930,6 +987,9 @@
       <c r="I19" t="n">
         <v>862400</v>
       </c>
+      <c r="J19" t="n">
+        <v>862400</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -954,6 +1014,9 @@
       <c r="I20" t="n">
         <v>862400</v>
       </c>
+      <c r="J20" t="n">
+        <v>862400</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -978,6 +1041,9 @@
       <c r="I21" t="n">
         <v>568100</v>
       </c>
+      <c r="J21" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1002,6 +1068,9 @@
       <c r="I22" t="n">
         <v>568100</v>
       </c>
+      <c r="J22" t="n">
+        <v>568100</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1026,6 +1095,9 @@
       <c r="I23" t="n">
         <v>708281</v>
       </c>
+      <c r="J23" t="n">
+        <v>708281</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1050,6 +1122,9 @@
       <c r="I24" t="n">
         <v>1104510</v>
       </c>
+      <c r="J24" t="n">
+        <v>1104510</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1074,6 +1149,9 @@
       <c r="I25" t="n">
         <v>1367100</v>
       </c>
+      <c r="J25" t="n">
+        <v>1367100</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1098,6 +1176,9 @@
       <c r="I26" t="n">
         <v>423763</v>
       </c>
+      <c r="J26" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1122,6 +1203,9 @@
       <c r="I27" t="n">
         <v>1130750</v>
       </c>
+      <c r="J27" t="n">
+        <v>1130750</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1146,6 +1230,9 @@
       <c r="I28" t="n">
         <v>580239</v>
       </c>
+      <c r="J28" t="n">
+        <v>580239</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1170,6 +1257,9 @@
       <c r="I29" t="n">
         <v>830205</v>
       </c>
+      <c r="J29" t="n">
+        <v>830205</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1194,6 +1284,9 @@
       <c r="I30" t="n">
         <v>1033600</v>
       </c>
+      <c r="J30" t="n">
+        <v>1033600</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1218,6 +1311,9 @@
       <c r="I31" t="n">
         <v>766260</v>
       </c>
+      <c r="J31" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1242,6 +1338,9 @@
       <c r="I32" t="n">
         <v>766260</v>
       </c>
+      <c r="J32" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1266,6 +1365,9 @@
       <c r="I33" t="n">
         <v>423763</v>
       </c>
+      <c r="J33" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1290,6 +1392,9 @@
       <c r="I34" t="n">
         <v>668135</v>
       </c>
+      <c r="J34" t="n">
+        <v>668135</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1314,6 +1419,9 @@
       <c r="I35" t="n">
         <v>766260</v>
       </c>
+      <c r="J35" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1338,6 +1446,9 @@
       <c r="I36" t="n">
         <v>867112</v>
       </c>
+      <c r="J36" t="n">
+        <v>867112</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1362,6 +1473,9 @@
       <c r="I37" t="n">
         <v>423763</v>
       </c>
+      <c r="J37" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1386,6 +1500,9 @@
       <c r="I38" t="n">
         <v>780312</v>
       </c>
+      <c r="J38" t="n">
+        <v>780312</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1410,6 +1527,9 @@
       <c r="I39" t="n">
         <v>959737</v>
       </c>
+      <c r="J39" t="n">
+        <v>959737</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1434,6 +1554,9 @@
       <c r="I40" t="n">
         <v>766260</v>
       </c>
+      <c r="J40" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1458,6 +1581,9 @@
       <c r="I41" t="n">
         <v>867112</v>
       </c>
+      <c r="J41" t="n">
+        <v>867112</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1482,6 +1608,9 @@
       <c r="I42" t="n">
         <v>835312</v>
       </c>
+      <c r="J42" t="n">
+        <v>835312</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1506,6 +1635,9 @@
       <c r="I43" t="n">
         <v>1544130</v>
       </c>
+      <c r="J43" t="n">
+        <v>1544130</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1530,6 +1662,9 @@
       <c r="I44" t="n">
         <v>1044715</v>
       </c>
+      <c r="J44" t="n">
+        <v>1044715</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1554,6 +1689,9 @@
       <c r="I45" t="n">
         <v>1544130</v>
       </c>
+      <c r="J45" t="n">
+        <v>1544130</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1578,6 +1716,9 @@
       <c r="I46" t="n">
         <v>708281</v>
       </c>
+      <c r="J46" t="n">
+        <v>708281</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1602,6 +1743,9 @@
       <c r="I47" t="n">
         <v>1367100</v>
       </c>
+      <c r="J47" t="n">
+        <v>1367100</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1626,6 +1770,9 @@
       <c r="I48" t="n">
         <v>766260</v>
       </c>
+      <c r="J48" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1650,6 +1797,9 @@
       <c r="I49" t="n">
         <v>423763</v>
       </c>
+      <c r="J49" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1674,6 +1824,9 @@
       <c r="I50" t="n">
         <v>800024</v>
       </c>
+      <c r="J50" t="n">
+        <v>800024</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1707,6 +1860,9 @@
       <c r="I51" t="n">
         <v>412500</v>
       </c>
+      <c r="J51" t="n">
+        <v>412500</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1740,6 +1896,9 @@
       <c r="I52" t="n">
         <v>222667</v>
       </c>
+      <c r="J52" t="n">
+        <v>222667</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1773,6 +1932,9 @@
       <c r="I53" t="n">
         <v>212500</v>
       </c>
+      <c r="J53" t="n">
+        <v>212500</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1806,6 +1968,9 @@
       <c r="I54" t="n">
         <v>550000</v>
       </c>
+      <c r="J54" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1839,6 +2004,9 @@
       <c r="I55" t="n">
         <v>540000</v>
       </c>
+      <c r="J55" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1872,6 +2040,9 @@
       <c r="I56" t="n">
         <v>185000</v>
       </c>
+      <c r="J56" t="n">
+        <v>185000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1905,6 +2076,9 @@
       <c r="I57" t="n">
         <v>226458</v>
       </c>
+      <c r="J57" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1938,6 +2112,9 @@
       <c r="I58" t="n">
         <v>150000</v>
       </c>
+      <c r="J58" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1971,6 +2148,9 @@
       <c r="I59" t="n">
         <v>308000</v>
       </c>
+      <c r="J59" t="n">
+        <v>308000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2004,6 +2184,9 @@
       <c r="I60" t="n">
         <v>375200</v>
       </c>
+      <c r="J60" t="n">
+        <v>375200</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2037,6 +2220,9 @@
       <c r="I61" t="n">
         <v>150000</v>
       </c>
+      <c r="J61" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2070,6 +2256,9 @@
       <c r="I62" t="n">
         <v>226458</v>
       </c>
+      <c r="J62" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2103,6 +2292,9 @@
       <c r="I63" t="n">
         <v>550000</v>
       </c>
+      <c r="J63" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2136,6 +2328,9 @@
       <c r="I64" t="n">
         <v>475000</v>
       </c>
+      <c r="J64" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2169,6 +2364,9 @@
       <c r="I65" t="n">
         <v>172500</v>
       </c>
+      <c r="J65" t="n">
+        <v>172500</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2202,6 +2400,9 @@
       <c r="I66" t="n">
         <v>165000</v>
       </c>
+      <c r="J66" t="n">
+        <v>165000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2235,6 +2436,9 @@
       <c r="I67" t="n">
         <v>186054</v>
       </c>
+      <c r="J67" t="n">
+        <v>186054</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2268,6 +2472,9 @@
       <c r="I68" t="n">
         <v>300000</v>
       </c>
+      <c r="J68" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2301,6 +2508,9 @@
       <c r="I69" t="n">
         <v>257000</v>
       </c>
+      <c r="J69" t="n">
+        <v>257000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2334,6 +2544,9 @@
       <c r="I70" t="n">
         <v>680000</v>
       </c>
+      <c r="J70" t="n">
+        <v>680000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2367,6 +2580,9 @@
       <c r="I71" t="n">
         <v>247333</v>
       </c>
+      <c r="J71" t="n">
+        <v>247333</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2400,6 +2616,9 @@
       <c r="I72" t="n">
         <v>300000</v>
       </c>
+      <c r="J72" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2433,6 +2652,9 @@
       <c r="I73" t="n">
         <v>88500</v>
       </c>
+      <c r="J73" t="n">
+        <v>88500</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2466,6 +2688,9 @@
       <c r="I74" t="n">
         <v>136800</v>
       </c>
+      <c r="J74" t="n">
+        <v>136800</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2523,6 +2748,9 @@
       <c r="I76" t="n">
         <v>540000</v>
       </c>
+      <c r="J76" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2556,6 +2784,9 @@
       <c r="I77" t="n">
         <v>300000</v>
       </c>
+      <c r="J77" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2589,6 +2820,9 @@
       <c r="I78" t="n">
         <v>600000</v>
       </c>
+      <c r="J78" t="n">
+        <v>600000</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2622,6 +2856,9 @@
       <c r="I79" t="n">
         <v>580000</v>
       </c>
+      <c r="J79" t="n">
+        <v>580000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2655,6 +2892,9 @@
       <c r="I80" t="n">
         <v>280500</v>
       </c>
+      <c r="J80" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2688,6 +2928,9 @@
       <c r="I81" t="n">
         <v>206250</v>
       </c>
+      <c r="J81" t="n">
+        <v>206250</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2721,6 +2964,9 @@
       <c r="I82" t="n">
         <v>226458</v>
       </c>
+      <c r="J82" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2754,6 +3000,9 @@
       <c r="I83" t="n">
         <v>308000</v>
       </c>
+      <c r="J83" t="n">
+        <v>308000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2787,6 +3036,9 @@
       <c r="I84" t="n">
         <v>215000</v>
       </c>
+      <c r="J84" t="n">
+        <v>215000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2820,6 +3072,9 @@
       <c r="I85" t="n">
         <v>206250</v>
       </c>
+      <c r="J85" t="n">
+        <v>206250</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2853,6 +3108,9 @@
       <c r="I86" t="n">
         <v>400000</v>
       </c>
+      <c r="J86" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2886,6 +3144,9 @@
       <c r="I87" t="n">
         <v>322000</v>
       </c>
+      <c r="J87" t="n">
+        <v>322000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2919,6 +3180,9 @@
       <c r="I88" t="n">
         <v>680000</v>
       </c>
+      <c r="J88" t="n">
+        <v>680000</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2952,6 +3216,9 @@
       <c r="I89" t="n">
         <v>210000</v>
       </c>
+      <c r="J89" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2985,6 +3252,9 @@
       <c r="I90" t="n">
         <v>200000</v>
       </c>
+      <c r="J90" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3018,6 +3288,9 @@
       <c r="I91" t="n">
         <v>225000</v>
       </c>
+      <c r="J91" t="n">
+        <v>225000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3051,6 +3324,9 @@
       <c r="I92" t="n">
         <v>175000</v>
       </c>
+      <c r="J92" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3084,6 +3360,9 @@
       <c r="I93" t="n">
         <v>150000</v>
       </c>
+      <c r="J93" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3117,6 +3396,9 @@
       <c r="I94" t="n">
         <v>380000</v>
       </c>
+      <c r="J94" t="n">
+        <v>380000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3150,6 +3432,9 @@
       <c r="I95" t="n">
         <v>215000</v>
       </c>
+      <c r="J95" t="n">
+        <v>215000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3183,6 +3468,9 @@
       <c r="I96" t="n">
         <v>150000</v>
       </c>
+      <c r="J96" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3216,6 +3504,9 @@
       <c r="I97" t="n">
         <v>596000</v>
       </c>
+      <c r="J97" t="n">
+        <v>596000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3249,6 +3540,9 @@
       <c r="I98" t="n">
         <v>107823</v>
       </c>
+      <c r="J98" t="n">
+        <v>107823</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3282,6 +3576,9 @@
       <c r="I99" t="n">
         <v>170000</v>
       </c>
+      <c r="J99" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3315,6 +3612,9 @@
       <c r="I100" t="n">
         <v>195000</v>
       </c>
+      <c r="J100" t="n">
+        <v>195000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3348,6 +3648,9 @@
       <c r="I101" t="n">
         <v>300000</v>
       </c>
+      <c r="J101" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3405,6 +3708,9 @@
       <c r="I103" t="n">
         <v>596000</v>
       </c>
+      <c r="J103" t="n">
+        <v>596000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3438,6 +3744,9 @@
       <c r="I104" t="n">
         <v>149000</v>
       </c>
+      <c r="J104" t="n">
+        <v>149000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3471,6 +3780,9 @@
       <c r="I105" t="n">
         <v>225000</v>
       </c>
+      <c r="J105" t="n">
+        <v>225000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3504,6 +3816,9 @@
       <c r="I106" t="n">
         <v>150000</v>
       </c>
+      <c r="J106" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3537,6 +3852,9 @@
       <c r="I107" t="n">
         <v>300000</v>
       </c>
+      <c r="J107" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3570,6 +3888,9 @@
       <c r="I108" t="n">
         <v>261050</v>
       </c>
+      <c r="J108" t="n">
+        <v>261050</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3603,6 +3924,9 @@
       <c r="I109" t="n">
         <v>242016</v>
       </c>
+      <c r="J109" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3636,6 +3960,9 @@
       <c r="I110" t="n">
         <v>615000</v>
       </c>
+      <c r="J110" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3669,6 +3996,9 @@
       <c r="I111" t="n">
         <v>670000</v>
       </c>
+      <c r="J111" t="n">
+        <v>670000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3702,6 +4032,9 @@
       <c r="I112" t="n">
         <v>350000</v>
       </c>
+      <c r="J112" t="n">
+        <v>350000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3735,6 +4068,9 @@
       <c r="I113" t="n">
         <v>685300</v>
       </c>
+      <c r="J113" t="n">
+        <v>685300</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3768,6 +4104,9 @@
       <c r="I114" t="n">
         <v>230000</v>
       </c>
+      <c r="J114" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3801,6 +4140,9 @@
       <c r="I115" t="n">
         <v>195000</v>
       </c>
+      <c r="J115" t="n">
+        <v>195000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3834,6 +4176,9 @@
       <c r="I116" t="n">
         <v>266000</v>
       </c>
+      <c r="J116" t="n">
+        <v>266000</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3867,6 +4212,9 @@
       <c r="I117" t="n">
         <v>275000</v>
       </c>
+      <c r="J117" t="n">
+        <v>275000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3900,6 +4248,9 @@
       <c r="I118" t="n">
         <v>340000</v>
       </c>
+      <c r="J118" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3933,6 +4284,9 @@
       <c r="I119" t="n">
         <v>242016</v>
       </c>
+      <c r="J119" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3966,6 +4320,9 @@
       <c r="I120" t="n">
         <v>150000</v>
       </c>
+      <c r="J120" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3999,6 +4356,9 @@
       <c r="I121" t="n">
         <v>312000</v>
       </c>
+      <c r="J121" t="n">
+        <v>312000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4032,6 +4392,9 @@
       <c r="I122" t="n">
         <v>216000</v>
       </c>
+      <c r="J122" t="n">
+        <v>216000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4065,6 +4428,9 @@
       <c r="I123" t="n">
         <v>175000</v>
       </c>
+      <c r="J123" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4098,6 +4464,9 @@
       <c r="I124" t="n">
         <v>590000</v>
       </c>
+      <c r="J124" t="n">
+        <v>590000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4131,6 +4500,9 @@
       <c r="I125" t="n">
         <v>202500</v>
       </c>
+      <c r="J125" t="n">
+        <v>202500</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4164,6 +4536,9 @@
       <c r="I126" t="n">
         <v>245000</v>
       </c>
+      <c r="J126" t="n">
+        <v>245000</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4197,6 +4572,9 @@
       <c r="I127" t="n">
         <v>223000</v>
       </c>
+      <c r="J127" t="n">
+        <v>223000</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4230,6 +4608,9 @@
       <c r="I128" t="n">
         <v>445000</v>
       </c>
+      <c r="J128" t="n">
+        <v>445000</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4263,6 +4644,9 @@
       <c r="I129" t="n">
         <v>150000</v>
       </c>
+      <c r="J129" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4296,6 +4680,9 @@
       <c r="I130" t="n">
         <v>500000</v>
       </c>
+      <c r="J130" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4329,6 +4716,9 @@
       <c r="I131" t="n">
         <v>950000</v>
       </c>
+      <c r="J131" t="n">
+        <v>950000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4362,6 +4752,9 @@
       <c r="I132" t="n">
         <v>150000</v>
       </c>
+      <c r="J132" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4395,6 +4788,9 @@
       <c r="I133" t="n">
         <v>226458</v>
       </c>
+      <c r="J133" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4428,6 +4824,9 @@
       <c r="I134" t="n">
         <v>475000</v>
       </c>
+      <c r="J134" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4461,6 +4860,9 @@
       <c r="I135" t="n">
         <v>284000</v>
       </c>
+      <c r="J135" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4494,6 +4896,9 @@
       <c r="I136" t="n">
         <v>205000</v>
       </c>
+      <c r="J136" t="n">
+        <v>205000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4527,6 +4932,9 @@
       <c r="I137" t="n">
         <v>242016</v>
       </c>
+      <c r="J137" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4560,6 +4968,9 @@
       <c r="I138" t="n">
         <v>300000</v>
       </c>
+      <c r="J138" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4593,6 +5004,9 @@
       <c r="I139" t="n">
         <v>238000</v>
       </c>
+      <c r="J139" t="n">
+        <v>238000</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4626,6 +5040,9 @@
       <c r="I140" t="n">
         <v>298000</v>
       </c>
+      <c r="J140" t="n">
+        <v>298000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4659,6 +5076,9 @@
       <c r="I141" t="n">
         <v>550000</v>
       </c>
+      <c r="J141" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4692,6 +5112,9 @@
       <c r="I142" t="n">
         <v>580000</v>
       </c>
+      <c r="J142" t="n">
+        <v>580000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4725,6 +5148,9 @@
       <c r="I143" t="n">
         <v>187500</v>
       </c>
+      <c r="J143" t="n">
+        <v>187500</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4758,6 +5184,9 @@
       <c r="I144" t="n">
         <v>160000</v>
       </c>
+      <c r="J144" t="n">
+        <v>160000</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4791,6 +5220,9 @@
       <c r="I145" t="n">
         <v>450000</v>
       </c>
+      <c r="J145" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4824,6 +5256,9 @@
       <c r="I146" t="n">
         <v>124111</v>
       </c>
+      <c r="J146" t="n">
+        <v>124111</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4857,6 +5292,9 @@
       <c r="I147" t="n">
         <v>200000</v>
       </c>
+      <c r="J147" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4890,6 +5328,9 @@
       <c r="I148" t="n">
         <v>325000</v>
       </c>
+      <c r="J148" t="n">
+        <v>325000</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4923,6 +5364,9 @@
       <c r="I149" t="n">
         <v>191440</v>
       </c>
+      <c r="J149" t="n">
+        <v>191440</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4956,6 +5400,9 @@
       <c r="I150" t="n">
         <v>322000</v>
       </c>
+      <c r="J150" t="n">
+        <v>322000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4989,6 +5436,9 @@
       <c r="I151" t="n">
         <v>596000</v>
       </c>
+      <c r="J151" t="n">
+        <v>596000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5022,6 +5472,9 @@
       <c r="I152" t="n">
         <v>226458</v>
       </c>
+      <c r="J152" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5055,6 +5508,9 @@
       <c r="I153" t="n">
         <v>400000</v>
       </c>
+      <c r="J153" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5088,6 +5544,9 @@
       <c r="I154" t="n">
         <v>340000</v>
       </c>
+      <c r="J154" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5121,6 +5580,9 @@
       <c r="I155" t="n">
         <v>475000</v>
       </c>
+      <c r="J155" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5154,6 +5616,9 @@
       <c r="I156" t="n">
         <v>292100</v>
       </c>
+      <c r="J156" t="n">
+        <v>292100</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -5187,6 +5652,9 @@
       <c r="I157" t="n">
         <v>274667</v>
       </c>
+      <c r="J157" t="n">
+        <v>274667</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -5220,6 +5688,9 @@
       <c r="I158" t="n">
         <v>350000</v>
       </c>
+      <c r="J158" t="n">
+        <v>350000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -5253,6 +5724,9 @@
       <c r="I159" t="n">
         <v>260000</v>
       </c>
+      <c r="J159" t="n">
+        <v>260000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -5286,6 +5760,9 @@
       <c r="I160" t="n">
         <v>230000</v>
       </c>
+      <c r="J160" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -5319,6 +5796,9 @@
       <c r="I161" t="n">
         <v>431250</v>
       </c>
+      <c r="J161" t="n">
+        <v>431250</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -5352,6 +5832,9 @@
       <c r="I162" t="n">
         <v>287500</v>
       </c>
+      <c r="J162" t="n">
+        <v>287500</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -5385,6 +5868,9 @@
       <c r="I163" t="n">
         <v>412500</v>
       </c>
+      <c r="J163" t="n">
+        <v>412500</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -5418,6 +5904,9 @@
       <c r="I164" t="n">
         <v>760000</v>
       </c>
+      <c r="J164" t="n">
+        <v>760000</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -5451,6 +5940,9 @@
       <c r="I165" t="n">
         <v>450000</v>
       </c>
+      <c r="J165" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -5484,6 +5976,9 @@
       <c r="I166" t="n">
         <v>390000</v>
       </c>
+      <c r="J166" t="n">
+        <v>390000</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -5517,6 +6012,9 @@
       <c r="I167" t="n">
         <v>200000</v>
       </c>
+      <c r="J167" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -5550,6 +6048,9 @@
       <c r="I168" t="n">
         <v>245000</v>
       </c>
+      <c r="J168" t="n">
+        <v>245000</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5583,6 +6084,9 @@
       <c r="I169" t="n">
         <v>190000</v>
       </c>
+      <c r="J169" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5616,6 +6120,9 @@
       <c r="I170" t="n">
         <v>150000</v>
       </c>
+      <c r="J170" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5649,6 +6156,9 @@
       <c r="I171" t="n">
         <v>130500</v>
       </c>
+      <c r="J171" t="n">
+        <v>130500</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5682,6 +6192,9 @@
       <c r="I172" t="n">
         <v>145000</v>
       </c>
+      <c r="J172" t="n">
+        <v>145000</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5715,6 +6228,9 @@
       <c r="I173" t="n">
         <v>155000</v>
       </c>
+      <c r="J173" t="n">
+        <v>155000</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5748,6 +6264,9 @@
       <c r="I174" t="n">
         <v>200000</v>
       </c>
+      <c r="J174" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5781,6 +6300,9 @@
       <c r="I175" t="n">
         <v>500000</v>
       </c>
+      <c r="J175" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5814,6 +6336,9 @@
       <c r="I176" t="n">
         <v>206250</v>
       </c>
+      <c r="J176" t="n">
+        <v>206250</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5847,6 +6372,9 @@
       <c r="I177" t="n">
         <v>150000</v>
       </c>
+      <c r="J177" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5880,6 +6408,9 @@
       <c r="I178" t="n">
         <v>364000</v>
       </c>
+      <c r="J178" t="n">
+        <v>364000</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5913,6 +6444,9 @@
       <c r="I179" t="n">
         <v>276000</v>
       </c>
+      <c r="J179" t="n">
+        <v>276000</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5946,6 +6480,9 @@
       <c r="I180" t="n">
         <v>375000</v>
       </c>
+      <c r="J180" t="n">
+        <v>375000</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5979,6 +6516,9 @@
       <c r="I181" t="n">
         <v>226458</v>
       </c>
+      <c r="J181" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -6036,6 +6576,9 @@
       <c r="I183" t="n">
         <v>600500</v>
       </c>
+      <c r="J183" t="n">
+        <v>600500</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -6069,6 +6612,9 @@
       <c r="I184" t="n">
         <v>288000</v>
       </c>
+      <c r="J184" t="n">
+        <v>288000</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -6102,6 +6648,9 @@
       <c r="I185" t="n">
         <v>280000</v>
       </c>
+      <c r="J185" t="n">
+        <v>280000</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -6135,6 +6684,9 @@
       <c r="I186" t="n">
         <v>364000</v>
       </c>
+      <c r="J186" t="n">
+        <v>364000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -6168,6 +6720,9 @@
       <c r="I187" t="n">
         <v>640000</v>
       </c>
+      <c r="J187" t="n">
+        <v>640000</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -6201,6 +6756,9 @@
       <c r="I188" t="n">
         <v>187500</v>
       </c>
+      <c r="J188" t="n">
+        <v>187500</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -6234,6 +6792,9 @@
       <c r="I189" t="n">
         <v>281600</v>
       </c>
+      <c r="J189" t="n">
+        <v>281600</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -6267,6 +6828,9 @@
       <c r="I190" t="n">
         <v>243000</v>
       </c>
+      <c r="J190" t="n">
+        <v>243000</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -6300,6 +6864,9 @@
       <c r="I191" t="n">
         <v>820000</v>
       </c>
+      <c r="J191" t="n">
+        <v>820000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -6333,6 +6900,9 @@
       <c r="I192" t="n">
         <v>465333</v>
       </c>
+      <c r="J192" t="n">
+        <v>465333</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -6366,6 +6936,9 @@
       <c r="I193" t="n">
         <v>200000</v>
       </c>
+      <c r="J193" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -6399,6 +6972,9 @@
       <c r="I194" t="n">
         <v>198000</v>
       </c>
+      <c r="J194" t="n">
+        <v>198000</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -6432,6 +7008,9 @@
       <c r="I195" t="n">
         <v>185000</v>
       </c>
+      <c r="J195" t="n">
+        <v>185000</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -6465,6 +7044,9 @@
       <c r="I196" t="n">
         <v>149000</v>
       </c>
+      <c r="J196" t="n">
+        <v>149000</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -6498,6 +7080,9 @@
       <c r="I197" t="n">
         <v>187500</v>
       </c>
+      <c r="J197" t="n">
+        <v>187500</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -6531,6 +7116,9 @@
       <c r="I198" t="n">
         <v>284000</v>
       </c>
+      <c r="J198" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -6564,6 +7152,9 @@
       <c r="I199" t="n">
         <v>242016</v>
       </c>
+      <c r="J199" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -6597,6 +7188,9 @@
       <c r="I200" t="n">
         <v>150000</v>
       </c>
+      <c r="J200" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -6630,6 +7224,9 @@
       <c r="I201" t="n">
         <v>475000</v>
       </c>
+      <c r="J201" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -6663,6 +7260,9 @@
       <c r="I202" t="n">
         <v>222667</v>
       </c>
+      <c r="J202" t="n">
+        <v>222667</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -6696,6 +7296,9 @@
       <c r="I203" t="n">
         <v>280500</v>
       </c>
+      <c r="J203" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -6729,6 +7332,9 @@
       <c r="I204" t="n">
         <v>247000</v>
       </c>
+      <c r="J204" t="n">
+        <v>247000</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -6762,6 +7368,9 @@
       <c r="I205" t="n">
         <v>32200</v>
       </c>
+      <c r="J205" t="n">
+        <v>32200</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6795,6 +7404,9 @@
       <c r="I206" t="n">
         <v>284000</v>
       </c>
+      <c r="J206" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6828,6 +7440,9 @@
       <c r="I207" t="n">
         <v>242016</v>
       </c>
+      <c r="J207" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6861,6 +7476,9 @@
       <c r="I208" t="n">
         <v>200000</v>
       </c>
+      <c r="J208" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6894,6 +7512,9 @@
       <c r="I209" t="n">
         <v>400000</v>
       </c>
+      <c r="J209" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6927,6 +7548,9 @@
       <c r="I210" t="n">
         <v>550000</v>
       </c>
+      <c r="J210" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6960,6 +7584,9 @@
       <c r="I211" t="n">
         <v>540000</v>
       </c>
+      <c r="J211" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6993,6 +7620,9 @@
       <c r="I212" t="n">
         <v>260000</v>
       </c>
+      <c r="J212" t="n">
+        <v>260000</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -7026,6 +7656,9 @@
       <c r="I213" t="n">
         <v>328000</v>
       </c>
+      <c r="J213" t="n">
+        <v>328000</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -7059,6 +7692,9 @@
       <c r="I214" t="n">
         <v>440000</v>
       </c>
+      <c r="J214" t="n">
+        <v>440000</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -7092,6 +7728,9 @@
       <c r="I215" t="n">
         <v>220000</v>
       </c>
+      <c r="J215" t="n">
+        <v>220000</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -7125,6 +7764,9 @@
       <c r="I216" t="n">
         <v>440000</v>
       </c>
+      <c r="J216" t="n">
+        <v>440000</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -7158,6 +7800,9 @@
       <c r="I217" t="n">
         <v>275000</v>
       </c>
+      <c r="J217" t="n">
+        <v>275000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -7191,6 +7836,9 @@
       <c r="I218" t="n">
         <v>669181</v>
       </c>
+      <c r="J218" t="n">
+        <v>669181</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -7224,6 +7872,9 @@
       <c r="I219" t="n">
         <v>429000</v>
       </c>
+      <c r="J219" t="n">
+        <v>429000</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -7257,6 +7908,9 @@
       <c r="I220" t="n">
         <v>572000</v>
       </c>
+      <c r="J220" t="n">
+        <v>572000</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -7290,6 +7944,9 @@
       <c r="I221" t="n">
         <v>190000</v>
       </c>
+      <c r="J221" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -7323,6 +7980,9 @@
       <c r="I222" t="n">
         <v>145000</v>
       </c>
+      <c r="J222" t="n">
+        <v>145000</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -7356,6 +8016,9 @@
       <c r="I223" t="n">
         <v>320000</v>
       </c>
+      <c r="J223" t="n">
+        <v>320000</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -7389,6 +8052,9 @@
       <c r="I224" t="n">
         <v>202400</v>
       </c>
+      <c r="J224" t="n">
+        <v>202400</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -7422,6 +8088,9 @@
       <c r="I225" t="n">
         <v>360000</v>
       </c>
+      <c r="J225" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -7455,6 +8124,9 @@
       <c r="I226" t="n">
         <v>525000</v>
       </c>
+      <c r="J226" t="n">
+        <v>525000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -7488,6 +8160,9 @@
       <c r="I227" t="n">
         <v>710000</v>
       </c>
+      <c r="J227" t="n">
+        <v>710000</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -7521,6 +8196,9 @@
       <c r="I228" t="n">
         <v>387200</v>
       </c>
+      <c r="J228" t="n">
+        <v>387200</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -7554,6 +8232,9 @@
       <c r="I229" t="n">
         <v>200000</v>
       </c>
+      <c r="J229" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -7587,6 +8268,9 @@
       <c r="I230" t="n">
         <v>627000</v>
       </c>
+      <c r="J230" t="n">
+        <v>627000</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -7620,6 +8304,9 @@
       <c r="I231" t="n">
         <v>337000</v>
       </c>
+      <c r="J231" t="n">
+        <v>337000</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -7653,6 +8340,9 @@
       <c r="I232" t="n">
         <v>450000</v>
       </c>
+      <c r="J232" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -7686,6 +8376,9 @@
       <c r="I233" t="n">
         <v>162450</v>
       </c>
+      <c r="J233" t="n">
+        <v>162450</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -7719,6 +8412,9 @@
       <c r="I234" t="n">
         <v>150000</v>
       </c>
+      <c r="J234" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -7752,6 +8448,9 @@
       <c r="I235" t="n">
         <v>226458</v>
       </c>
+      <c r="J235" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -7785,6 +8484,9 @@
       <c r="I236" t="n">
         <v>200000</v>
       </c>
+      <c r="J236" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -7818,6 +8520,9 @@
       <c r="I237" t="n">
         <v>330000</v>
       </c>
+      <c r="J237" t="n">
+        <v>330000</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -7851,6 +8556,9 @@
       <c r="I238" t="n">
         <v>400000</v>
       </c>
+      <c r="J238" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -7884,6 +8592,9 @@
       <c r="I239" t="n">
         <v>290000</v>
       </c>
+      <c r="J239" t="n">
+        <v>290000</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -7917,6 +8628,9 @@
       <c r="I240" t="n">
         <v>745000</v>
       </c>
+      <c r="J240" t="n">
+        <v>745000</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -7950,6 +8664,9 @@
       <c r="I241" t="n">
         <v>222667</v>
       </c>
+      <c r="J241" t="n">
+        <v>222667</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -7983,6 +8700,9 @@
       <c r="I242" t="n">
         <v>357500</v>
       </c>
+      <c r="J242" t="n">
+        <v>357500</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -8016,6 +8736,9 @@
       <c r="I243" t="n">
         <v>150000</v>
       </c>
+      <c r="J243" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -8049,6 +8772,9 @@
       <c r="I244" t="n">
         <v>357500</v>
       </c>
+      <c r="J244" t="n">
+        <v>357500</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -8082,6 +8808,9 @@
       <c r="I245" t="n">
         <v>186540</v>
       </c>
+      <c r="J245" t="n">
+        <v>186540</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -8115,6 +8844,9 @@
       <c r="I246" t="n">
         <v>150000</v>
       </c>
+      <c r="J246" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -8148,6 +8880,9 @@
       <c r="I247" t="n">
         <v>260000</v>
       </c>
+      <c r="J247" t="n">
+        <v>260000</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -8181,6 +8916,9 @@
       <c r="I248" t="n">
         <v>520000</v>
       </c>
+      <c r="J248" t="n">
+        <v>520000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -8214,6 +8952,9 @@
       <c r="I249" t="n">
         <v>480850</v>
       </c>
+      <c r="J249" t="n">
+        <v>480850</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -8247,6 +8988,9 @@
       <c r="I250" t="n">
         <v>320000</v>
       </c>
+      <c r="J250" t="n">
+        <v>320000</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -8280,6 +9024,9 @@
       <c r="I251" t="n">
         <v>200000</v>
       </c>
+      <c r="J251" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -8313,6 +9060,9 @@
       <c r="I252" t="n">
         <v>292100</v>
       </c>
+      <c r="J252" t="n">
+        <v>292100</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -8346,6 +9096,9 @@
       <c r="I253" t="n">
         <v>308000</v>
       </c>
+      <c r="J253" t="n">
+        <v>308000</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -8379,6 +9132,9 @@
       <c r="I254" t="n">
         <v>186054</v>
       </c>
+      <c r="J254" t="n">
+        <v>186054</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -8412,6 +9168,9 @@
       <c r="I255" t="n">
         <v>210000</v>
       </c>
+      <c r="J255" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -8445,6 +9204,9 @@
       <c r="I256" t="n">
         <v>184400</v>
       </c>
+      <c r="J256" t="n">
+        <v>184400</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -8478,6 +9240,9 @@
       <c r="I257" t="n">
         <v>365000</v>
       </c>
+      <c r="J257" t="n">
+        <v>365000</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -8511,6 +9276,9 @@
       <c r="I258" t="n">
         <v>320000</v>
       </c>
+      <c r="J258" t="n">
+        <v>320000</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -8544,6 +9312,9 @@
       <c r="I259" t="n">
         <v>175000</v>
       </c>
+      <c r="J259" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -8577,6 +9348,9 @@
       <c r="I260" t="n">
         <v>242016</v>
       </c>
+      <c r="J260" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -8610,6 +9384,9 @@
       <c r="I261" t="n">
         <v>340000</v>
       </c>
+      <c r="J261" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -8643,6 +9420,9 @@
       <c r="I262" t="n">
         <v>364000</v>
       </c>
+      <c r="J262" t="n">
+        <v>364000</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -8676,6 +9456,9 @@
       <c r="I263" t="n">
         <v>345000</v>
       </c>
+      <c r="J263" t="n">
+        <v>345000</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -8733,6 +9516,9 @@
       <c r="I265" t="n">
         <v>600000</v>
       </c>
+      <c r="J265" t="n">
+        <v>600000</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -8766,6 +9552,9 @@
       <c r="I266" t="n">
         <v>750000</v>
       </c>
+      <c r="J266" t="n">
+        <v>750000</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -8799,6 +9588,9 @@
       <c r="I267" t="n">
         <v>226458</v>
       </c>
+      <c r="J267" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -8832,6 +9624,9 @@
       <c r="I268" t="n">
         <v>150000</v>
       </c>
+      <c r="J268" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -8865,6 +9660,9 @@
       <c r="I269" t="n">
         <v>462290</v>
       </c>
+      <c r="J269" t="n">
+        <v>462290</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -8898,6 +9696,9 @@
       <c r="I270" t="n">
         <v>280500</v>
       </c>
+      <c r="J270" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -8931,6 +9732,9 @@
       <c r="I271" t="n">
         <v>284000</v>
       </c>
+      <c r="J271" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -8964,6 +9768,9 @@
       <c r="I272" t="n">
         <v>280500</v>
       </c>
+      <c r="J272" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -8997,6 +9804,9 @@
       <c r="I273" t="n">
         <v>510000</v>
       </c>
+      <c r="J273" t="n">
+        <v>510000</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -9030,6 +9840,9 @@
       <c r="I274" t="n">
         <v>226458</v>
       </c>
+      <c r="J274" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -9063,6 +9876,9 @@
       <c r="I275" t="n">
         <v>462290</v>
       </c>
+      <c r="J275" t="n">
+        <v>462290</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -9096,6 +9912,9 @@
       <c r="I276" t="n">
         <v>237500</v>
       </c>
+      <c r="J276" t="n">
+        <v>237500</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -9129,6 +9948,9 @@
       <c r="I277" t="n">
         <v>315000</v>
       </c>
+      <c r="J277" t="n">
+        <v>315000</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -9162,6 +9984,9 @@
       <c r="I278" t="n">
         <v>302500</v>
       </c>
+      <c r="J278" t="n">
+        <v>302500</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -9195,6 +10020,9 @@
       <c r="I279" t="n">
         <v>1075000</v>
       </c>
+      <c r="J279" t="n">
+        <v>1075000</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -9228,6 +10056,9 @@
       <c r="I280" t="n">
         <v>550000</v>
       </c>
+      <c r="J280" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -9261,6 +10092,9 @@
       <c r="I281" t="n">
         <v>345000</v>
       </c>
+      <c r="J281" t="n">
+        <v>345000</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -9294,6 +10128,9 @@
       <c r="I282" t="n">
         <v>185000</v>
       </c>
+      <c r="J282" t="n">
+        <v>185000</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -9327,6 +10164,9 @@
       <c r="I283" t="n">
         <v>300000</v>
       </c>
+      <c r="J283" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -9360,6 +10200,9 @@
       <c r="I284" t="n">
         <v>280500</v>
       </c>
+      <c r="J284" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -9393,6 +10236,9 @@
       <c r="I285" t="n">
         <v>300000</v>
       </c>
+      <c r="J285" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -9426,6 +10272,9 @@
       <c r="I286" t="n">
         <v>234000</v>
       </c>
+      <c r="J286" t="n">
+        <v>234000</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -9459,6 +10308,9 @@
       <c r="I287" t="n">
         <v>200000</v>
       </c>
+      <c r="J287" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -9492,6 +10344,9 @@
       <c r="I288" t="n">
         <v>242016</v>
       </c>
+      <c r="J288" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -9525,6 +10380,9 @@
       <c r="I289" t="n">
         <v>697500</v>
       </c>
+      <c r="J289" t="n">
+        <v>697500</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -9558,6 +10416,9 @@
       <c r="I290" t="n">
         <v>200000</v>
       </c>
+      <c r="J290" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -9591,6 +10452,9 @@
       <c r="I291" t="n">
         <v>468000</v>
       </c>
+      <c r="J291" t="n">
+        <v>468000</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -9624,6 +10488,9 @@
       <c r="I292" t="n">
         <v>450000</v>
       </c>
+      <c r="J292" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -9657,6 +10524,9 @@
       <c r="I293" t="n">
         <v>198750</v>
       </c>
+      <c r="J293" t="n">
+        <v>198750</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -9690,6 +10560,9 @@
       <c r="I294" t="n">
         <v>270000</v>
       </c>
+      <c r="J294" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -9723,6 +10596,9 @@
       <c r="I295" t="n">
         <v>290400</v>
       </c>
+      <c r="J295" t="n">
+        <v>290400</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -9756,6 +10632,9 @@
       <c r="I296" t="n">
         <v>475000</v>
       </c>
+      <c r="J296" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -9789,6 +10668,9 @@
       <c r="I297" t="n">
         <v>187500</v>
       </c>
+      <c r="J297" t="n">
+        <v>187500</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -9822,6 +10704,9 @@
       <c r="I298" t="n">
         <v>288000</v>
       </c>
+      <c r="J298" t="n">
+        <v>288000</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -9855,6 +10740,9 @@
       <c r="I299" t="n">
         <v>150000</v>
       </c>
+      <c r="J299" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -9888,6 +10776,9 @@
       <c r="I300" t="n">
         <v>200000</v>
       </c>
+      <c r="J300" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -9921,6 +10812,9 @@
       <c r="I301" t="n">
         <v>230000</v>
       </c>
+      <c r="J301" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -9954,6 +10848,9 @@
       <c r="I302" t="n">
         <v>150000</v>
       </c>
+      <c r="J302" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -9987,6 +10884,9 @@
       <c r="I303" t="n">
         <v>226458</v>
       </c>
+      <c r="J303" t="n">
+        <v>226458</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -10020,6 +10920,9 @@
       <c r="I304" t="n">
         <v>170000</v>
       </c>
+      <c r="J304" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -10053,6 +10956,9 @@
       <c r="I305" t="n">
         <v>284000</v>
       </c>
+      <c r="J305" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -10086,6 +10992,9 @@
       <c r="I306" t="n">
         <v>462290</v>
       </c>
+      <c r="J306" t="n">
+        <v>462290</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -10119,6 +11028,9 @@
       <c r="I307" t="n">
         <v>697500</v>
       </c>
+      <c r="J307" t="n">
+        <v>697500</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -10152,6 +11064,9 @@
       <c r="I308" t="n">
         <v>284000</v>
       </c>
+      <c r="J308" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -10185,6 +11100,9 @@
       <c r="I309" t="n">
         <v>450000</v>
       </c>
+      <c r="J309" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -10218,6 +11136,9 @@
       <c r="I310" t="n">
         <v>131500</v>
       </c>
+      <c r="J310" t="n">
+        <v>131500</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -10251,6 +11172,9 @@
       <c r="I311" t="n">
         <v>340000</v>
       </c>
+      <c r="J311" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -10284,6 +11208,9 @@
       <c r="I312" t="n">
         <v>685300</v>
       </c>
+      <c r="J312" t="n">
+        <v>685300</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -10317,6 +11244,9 @@
       <c r="I313" t="n">
         <v>243000</v>
       </c>
+      <c r="J313" t="n">
+        <v>243000</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -10350,6 +11280,9 @@
       <c r="I314" t="n">
         <v>462290</v>
       </c>
+      <c r="J314" t="n">
+        <v>462290</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -10383,6 +11316,9 @@
       <c r="I315" t="n">
         <v>540000</v>
       </c>
+      <c r="J315" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -10440,6 +11376,9 @@
       <c r="I317" t="n">
         <v>222666</v>
       </c>
+      <c r="J317" t="n">
+        <v>222666</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -10473,6 +11412,9 @@
       <c r="I318" t="n">
         <v>215000</v>
       </c>
+      <c r="J318" t="n">
+        <v>215000</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -10506,6 +11448,9 @@
       <c r="I319" t="n">
         <v>150000</v>
       </c>
+      <c r="J319" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -10539,6 +11484,9 @@
       <c r="I320" t="n">
         <v>270000</v>
       </c>
+      <c r="J320" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -10572,6 +11520,9 @@
       <c r="I321" t="n">
         <v>135000</v>
       </c>
+      <c r="J321" t="n">
+        <v>135000</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -10605,6 +11556,9 @@
       <c r="I322" t="n">
         <v>184800</v>
       </c>
+      <c r="J322" t="n">
+        <v>184800</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -10638,6 +11592,9 @@
       <c r="I323" t="n">
         <v>140600</v>
       </c>
+      <c r="J323" t="n">
+        <v>140600</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -10671,6 +11628,9 @@
       <c r="I324" t="n">
         <v>475500</v>
       </c>
+      <c r="J324" t="n">
+        <v>475500</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -10704,6 +11664,9 @@
       <c r="I325" t="n">
         <v>291333</v>
       </c>
+      <c r="J325" t="n">
+        <v>291333</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -10737,6 +11700,9 @@
       <c r="I326" t="n">
         <v>161500</v>
       </c>
+      <c r="J326" t="n">
+        <v>161500</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -10794,6 +11760,9 @@
       <c r="I328" t="n">
         <v>540000</v>
       </c>
+      <c r="J328" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -10827,6 +11796,9 @@
       <c r="I329" t="n">
         <v>150000</v>
       </c>
+      <c r="J329" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -10860,6 +11832,9 @@
       <c r="I330" t="n">
         <v>142500</v>
       </c>
+      <c r="J330" t="n">
+        <v>142500</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -10893,6 +11868,9 @@
       <c r="I331" t="n">
         <v>202400</v>
       </c>
+      <c r="J331" t="n">
+        <v>202400</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -10926,6 +11904,9 @@
       <c r="I332" t="n">
         <v>291333</v>
       </c>
+      <c r="J332" t="n">
+        <v>291333</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -10959,6 +11940,9 @@
       <c r="I333" t="n">
         <v>615000</v>
       </c>
+      <c r="J333" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -10992,6 +11976,9 @@
       <c r="I334" t="n">
         <v>704713</v>
       </c>
+      <c r="J334" t="n">
+        <v>704713</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -11025,6 +12012,9 @@
       <c r="I335" t="n">
         <v>280000</v>
       </c>
+      <c r="J335" t="n">
+        <v>280000</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -11058,6 +12048,9 @@
       <c r="I336" t="n">
         <v>360000</v>
       </c>
+      <c r="J336" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -11091,6 +12084,9 @@
       <c r="I337" t="n">
         <v>245000</v>
       </c>
+      <c r="J337" t="n">
+        <v>245000</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -11124,6 +12120,9 @@
       <c r="I338" t="n">
         <v>575000</v>
       </c>
+      <c r="J338" t="n">
+        <v>575000</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -11157,6 +12156,9 @@
       <c r="I339" t="n">
         <v>384000</v>
       </c>
+      <c r="J339" t="n">
+        <v>384000</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -11190,6 +12192,9 @@
       <c r="I340" t="n">
         <v>357500</v>
       </c>
+      <c r="J340" t="n">
+        <v>357500</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -11223,6 +12228,9 @@
       <c r="I341" t="n">
         <v>150000</v>
       </c>
+      <c r="J341" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -11256,6 +12264,9 @@
       <c r="I342" t="n">
         <v>175000</v>
       </c>
+      <c r="J342" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -11289,6 +12300,9 @@
       <c r="I343" t="n">
         <v>230000</v>
       </c>
+      <c r="J343" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -11322,6 +12336,9 @@
       <c r="I344" t="n">
         <v>160000</v>
       </c>
+      <c r="J344" t="n">
+        <v>160000</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -11355,6 +12372,9 @@
       <c r="I345" t="n">
         <v>150000</v>
       </c>
+      <c r="J345" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -11388,6 +12408,9 @@
       <c r="I346" t="n">
         <v>270000</v>
       </c>
+      <c r="J346" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -11421,6 +12444,9 @@
       <c r="I347" t="n">
         <v>184800</v>
       </c>
+      <c r="J347" t="n">
+        <v>184800</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -11454,6 +12480,9 @@
       <c r="I348" t="n">
         <v>199333</v>
       </c>
+      <c r="J348" t="n">
+        <v>199333</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -11487,6 +12516,9 @@
       <c r="I349" t="n">
         <v>480850</v>
       </c>
+      <c r="J349" t="n">
+        <v>480850</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -11520,6 +12552,9 @@
       <c r="I350" t="n">
         <v>565000</v>
       </c>
+      <c r="J350" t="n">
+        <v>565000</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -11553,6 +12588,9 @@
       <c r="I351" t="n">
         <v>290000</v>
       </c>
+      <c r="J351" t="n">
+        <v>290000</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -11586,6 +12624,9 @@
       <c r="I352" t="n">
         <v>144000</v>
       </c>
+      <c r="J352" t="n">
+        <v>144000</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -11619,6 +12660,9 @@
       <c r="I353" t="n">
         <v>263000</v>
       </c>
+      <c r="J353" t="n">
+        <v>263000</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -11652,6 +12696,9 @@
       <c r="I354" t="n">
         <v>150000</v>
       </c>
+      <c r="J354" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -11685,6 +12732,9 @@
       <c r="I355" t="n">
         <v>322000</v>
       </c>
+      <c r="J355" t="n">
+        <v>322000</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -11718,6 +12768,9 @@
       <c r="I356" t="n">
         <v>575000</v>
       </c>
+      <c r="J356" t="n">
+        <v>575000</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -11751,6 +12804,9 @@
       <c r="I357" t="n">
         <v>480850</v>
       </c>
+      <c r="J357" t="n">
+        <v>480850</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -11784,6 +12840,9 @@
       <c r="I358" t="n">
         <v>600000</v>
       </c>
+      <c r="J358" t="n">
+        <v>600000</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -11817,6 +12876,9 @@
       <c r="I359" t="n">
         <v>326399</v>
       </c>
+      <c r="J359" t="n">
+        <v>326399</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -11850,6 +12912,9 @@
       <c r="I360" t="n">
         <v>51000</v>
       </c>
+      <c r="J360" t="n">
+        <v>51000</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -11883,6 +12948,9 @@
       <c r="I361" t="n">
         <v>288000</v>
       </c>
+      <c r="J361" t="n">
+        <v>288000</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -11916,6 +12984,9 @@
       <c r="I362" t="n">
         <v>145000</v>
       </c>
+      <c r="J362" t="n">
+        <v>145000</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -11949,6 +13020,9 @@
       <c r="I363" t="n">
         <v>320000</v>
       </c>
+      <c r="J363" t="n">
+        <v>320000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -11982,6 +13056,9 @@
       <c r="I364" t="n">
         <v>150000</v>
       </c>
+      <c r="J364" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -12015,6 +13092,9 @@
       <c r="I365" t="n">
         <v>270000</v>
       </c>
+      <c r="J365" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -12048,6 +13128,9 @@
       <c r="I366" t="n">
         <v>184800</v>
       </c>
+      <c r="J366" t="n">
+        <v>184800</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -12081,6 +13164,9 @@
       <c r="I367" t="n">
         <v>495000</v>
       </c>
+      <c r="J367" t="n">
+        <v>495000</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -12114,6 +13200,9 @@
       <c r="I368" t="n">
         <v>180000</v>
       </c>
+      <c r="J368" t="n">
+        <v>180000</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -12147,6 +13236,9 @@
       <c r="I369" t="n">
         <v>242016</v>
       </c>
+      <c r="J369" t="n">
+        <v>242016</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -12180,6 +13272,9 @@
       <c r="I370" t="n">
         <v>440000</v>
       </c>
+      <c r="J370" t="n">
+        <v>440000</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -12213,6 +13308,9 @@
       <c r="I371" t="n">
         <v>950000</v>
       </c>
+      <c r="J371" t="n">
+        <v>950000</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -12246,6 +13344,9 @@
       <c r="I372" t="n">
         <v>300000</v>
       </c>
+      <c r="J372" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -12279,6 +13380,9 @@
       <c r="I373" t="n">
         <v>575000</v>
       </c>
+      <c r="J373" t="n">
+        <v>575000</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -12312,6 +13416,9 @@
       <c r="I374" t="n">
         <v>540000</v>
       </c>
+      <c r="J374" t="n">
+        <v>540000</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -12345,6 +13452,9 @@
       <c r="I375" t="n">
         <v>242250</v>
       </c>
+      <c r="J375" t="n">
+        <v>242250</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -12378,6 +13488,9 @@
       <c r="I376" t="n">
         <v>210000</v>
       </c>
+      <c r="J376" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -12411,6 +13524,9 @@
       <c r="I377" t="n">
         <v>186000</v>
       </c>
+      <c r="J377" t="n">
+        <v>186000</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -12444,6 +13560,9 @@
       <c r="I378" t="n">
         <v>384000</v>
       </c>
+      <c r="J378" t="n">
+        <v>384000</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -12477,6 +13596,9 @@
       <c r="I379" t="n">
         <v>199333</v>
       </c>
+      <c r="J379" t="n">
+        <v>199333</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -12510,6 +13632,9 @@
       <c r="I380" t="n">
         <v>135000</v>
       </c>
+      <c r="J380" t="n">
+        <v>135000</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -12543,6 +13668,9 @@
       <c r="I381" t="n">
         <v>175000</v>
       </c>
+      <c r="J381" t="n">
+        <v>175000</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -12576,6 +13704,9 @@
       <c r="I382" t="n">
         <v>190000</v>
       </c>
+      <c r="J382" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -12609,6 +13740,9 @@
       <c r="I383" t="n">
         <v>192500</v>
       </c>
+      <c r="J383" t="n">
+        <v>192500</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -12642,6 +13776,9 @@
       <c r="I384" t="n">
         <v>550000</v>
       </c>
+      <c r="J384" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -12675,6 +13812,9 @@
       <c r="I385" t="n">
         <v>700000</v>
       </c>
+      <c r="J385" t="n">
+        <v>700000</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -12708,6 +13848,9 @@
       <c r="I386" t="n">
         <v>620000</v>
       </c>
+      <c r="J386" t="n">
+        <v>620000</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -12741,6 +13884,9 @@
       <c r="I387" t="n">
         <v>1075000</v>
       </c>
+      <c r="J387" t="n">
+        <v>1075000</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -12774,6 +13920,9 @@
       <c r="I388" t="n">
         <v>200000</v>
       </c>
+      <c r="J388" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -12807,6 +13956,9 @@
       <c r="I389" t="n">
         <v>1100000</v>
       </c>
+      <c r="J389" t="n">
+        <v>1100000</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -12840,6 +13992,9 @@
       <c r="I390" t="n">
         <v>495000</v>
       </c>
+      <c r="J390" t="n">
+        <v>495000</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -12873,6 +14028,9 @@
       <c r="I391" t="n">
         <v>129500</v>
       </c>
+      <c r="J391" t="n">
+        <v>129500</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -12906,6 +14064,9 @@
       <c r="I392" t="n">
         <v>685300</v>
       </c>
+      <c r="J392" t="n">
+        <v>685300</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -12939,6 +14100,9 @@
       <c r="I393" t="n">
         <v>198000</v>
       </c>
+      <c r="J393" t="n">
+        <v>198000</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -12972,6 +14136,9 @@
       <c r="I394" t="n">
         <v>320000</v>
       </c>
+      <c r="J394" t="n">
+        <v>320000</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -13005,6 +14172,9 @@
       <c r="I395" t="n">
         <v>142500</v>
       </c>
+      <c r="J395" t="n">
+        <v>142500</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -13038,6 +14208,9 @@
       <c r="I396" t="n">
         <v>137500</v>
       </c>
+      <c r="J396" t="n">
+        <v>137500</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -13071,6 +14244,9 @@
       <c r="I397" t="n">
         <v>610000</v>
       </c>
+      <c r="J397" t="n">
+        <v>610000</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -13104,6 +14280,9 @@
       <c r="I398" t="n">
         <v>360000</v>
       </c>
+      <c r="J398" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -13137,6 +14316,9 @@
       <c r="I399" t="n">
         <v>413600</v>
       </c>
+      <c r="J399" t="n">
+        <v>413600</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -13170,6 +14352,9 @@
       <c r="I400" t="n">
         <v>325000</v>
       </c>
+      <c r="J400" t="n">
+        <v>325000</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -13203,6 +14388,9 @@
       <c r="I401" t="n">
         <v>360000</v>
       </c>
+      <c r="J401" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -13236,6 +14424,9 @@
       <c r="I402" t="n">
         <v>275000</v>
       </c>
+      <c r="J402" t="n">
+        <v>275000</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -13269,6 +14460,9 @@
       <c r="I403" t="n">
         <v>105000</v>
       </c>
+      <c r="J403" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -13302,6 +14496,9 @@
       <c r="I404" t="n">
         <v>420000</v>
       </c>
+      <c r="J404" t="n">
+        <v>420000</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -13335,6 +14532,9 @@
       <c r="I405" t="n">
         <v>530000</v>
       </c>
+      <c r="J405" t="n">
+        <v>530000</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -13392,6 +14592,9 @@
       <c r="I407" t="n">
         <v>250000</v>
       </c>
+      <c r="J407" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -13425,6 +14628,9 @@
       <c r="I408" t="n">
         <v>250000</v>
       </c>
+      <c r="J408" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -13458,6 +14664,9 @@
       <c r="I409" t="n">
         <v>201600</v>
       </c>
+      <c r="J409" t="n">
+        <v>201600</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -13515,6 +14724,9 @@
       <c r="I411" t="n">
         <v>280500</v>
       </c>
+      <c r="J411" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -13548,6 +14760,9 @@
       <c r="I412" t="n">
         <v>150000</v>
       </c>
+      <c r="J412" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -13581,6 +14796,9 @@
       <c r="I413" t="n">
         <v>284000</v>
       </c>
+      <c r="J413" t="n">
+        <v>284000</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -13614,6 +14832,9 @@
       <c r="I414" t="n">
         <v>150000</v>
       </c>
+      <c r="J414" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -13647,6 +14868,9 @@
       <c r="I415" t="n">
         <v>162450</v>
       </c>
+      <c r="J415" t="n">
+        <v>162450</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -13680,6 +14904,9 @@
       <c r="I416" t="n">
         <v>222667</v>
       </c>
+      <c r="J416" t="n">
+        <v>222667</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -13713,6 +14940,9 @@
       <c r="I417" t="n">
         <v>200000</v>
       </c>
+      <c r="J417" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -13746,6 +14976,9 @@
       <c r="I418" t="n">
         <v>280500</v>
       </c>
+      <c r="J418" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -13779,6 +15012,9 @@
       <c r="I419" t="n">
         <v>250000</v>
       </c>
+      <c r="J419" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -13812,6 +15048,9 @@
       <c r="I420" t="n">
         <v>215000</v>
       </c>
+      <c r="J420" t="n">
+        <v>215000</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -13845,6 +15084,9 @@
       <c r="I421" t="n">
         <v>144000</v>
       </c>
+      <c r="J421" t="n">
+        <v>144000</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -13878,6 +15120,9 @@
       <c r="I422" t="n">
         <v>550000</v>
       </c>
+      <c r="J422" t="n">
+        <v>550000</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -13911,6 +15156,9 @@
       <c r="I423" t="n">
         <v>186054</v>
       </c>
+      <c r="J423" t="n">
+        <v>186054</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -13944,6 +15192,9 @@
       <c r="I424" t="n">
         <v>270000</v>
       </c>
+      <c r="J424" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -13977,6 +15228,9 @@
       <c r="I425" t="n">
         <v>129500</v>
       </c>
+      <c r="J425" t="n">
+        <v>129500</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -14010,6 +15264,9 @@
       <c r="I426" t="n">
         <v>136800</v>
       </c>
+      <c r="J426" t="n">
+        <v>136800</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -14043,6 +15300,9 @@
       <c r="I427" t="n">
         <v>348750</v>
       </c>
+      <c r="J427" t="n">
+        <v>348750</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -14076,6 +15336,9 @@
       <c r="I428" t="n">
         <v>400000</v>
       </c>
+      <c r="J428" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -14109,6 +15372,9 @@
       <c r="I429" t="n">
         <v>230000</v>
       </c>
+      <c r="J429" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -14142,6 +15408,9 @@
       <c r="I430" t="n">
         <v>170000</v>
       </c>
+      <c r="J430" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -14166,6 +15435,9 @@
       <c r="I431" t="n">
         <v>883275</v>
       </c>
+      <c r="J431" t="n">
+        <v>883275</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -14190,6 +15462,9 @@
       <c r="I432" t="n">
         <v>564058</v>
       </c>
+      <c r="J432" t="n">
+        <v>564058</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -14214,6 +15489,9 @@
       <c r="I433" t="n">
         <v>700810</v>
       </c>
+      <c r="J433" t="n">
+        <v>700810</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -14238,6 +15516,9 @@
       <c r="I434" t="n">
         <v>890010</v>
       </c>
+      <c r="J434" t="n">
+        <v>890010</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -14262,6 +15543,9 @@
       <c r="I435" t="n">
         <v>990000</v>
       </c>
+      <c r="J435" t="n">
+        <v>990000</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -14286,6 +15570,9 @@
       <c r="I436" t="n">
         <v>657030</v>
       </c>
+      <c r="J436" t="n">
+        <v>657030</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -14310,6 +15597,9 @@
       <c r="I437" t="n">
         <v>715330</v>
       </c>
+      <c r="J437" t="n">
+        <v>715330</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -14334,6 +15624,9 @@
       <c r="I438" t="n">
         <v>1001550</v>
       </c>
+      <c r="J438" t="n">
+        <v>1001550</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -14358,6 +15651,9 @@
       <c r="I439" t="n">
         <v>1120350</v>
       </c>
+      <c r="J439" t="n">
+        <v>1120350</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -14382,6 +15678,9 @@
       <c r="I440" t="n">
         <v>776910</v>
       </c>
+      <c r="J440" t="n">
+        <v>776910</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -14406,6 +15705,9 @@
       <c r="I441" t="n">
         <v>967243</v>
       </c>
+      <c r="J441" t="n">
+        <v>967243</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -14430,6 +15732,9 @@
       <c r="I442" t="n">
         <v>1617660</v>
       </c>
+      <c r="J442" t="n">
+        <v>1617660</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
@@ -14454,6 +15759,9 @@
       <c r="I443" t="n">
         <v>423763</v>
       </c>
+      <c r="J443" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -14478,6 +15786,9 @@
       <c r="I444" t="n">
         <v>423763</v>
       </c>
+      <c r="J444" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -14502,6 +15813,9 @@
       <c r="I445" t="n">
         <v>875250</v>
       </c>
+      <c r="J445" t="n">
+        <v>875250</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -14526,6 +15840,9 @@
       <c r="I446" t="n">
         <v>875250</v>
       </c>
+      <c r="J446" t="n">
+        <v>875250</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -14550,6 +15867,9 @@
       <c r="I447" t="n">
         <v>875250</v>
       </c>
+      <c r="J447" t="n">
+        <v>875250</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -14574,6 +15894,9 @@
       <c r="I448" t="n">
         <v>875250</v>
       </c>
+      <c r="J448" t="n">
+        <v>875250</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -14598,6 +15921,9 @@
       <c r="I449" t="n">
         <v>766260</v>
       </c>
+      <c r="J449" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -14622,6 +15948,9 @@
       <c r="I450" t="n">
         <v>770000</v>
       </c>
+      <c r="J450" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -14646,6 +15975,9 @@
       <c r="I451" t="n">
         <v>770000</v>
       </c>
+      <c r="J451" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -14670,6 +16002,9 @@
       <c r="I452" t="n">
         <v>770000</v>
       </c>
+      <c r="J452" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -14694,6 +16029,9 @@
       <c r="I453" t="n">
         <v>657030</v>
       </c>
+      <c r="J453" t="n">
+        <v>657030</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -14718,6 +16056,9 @@
       <c r="I454" t="n">
         <v>593120</v>
       </c>
+      <c r="J454" t="n">
+        <v>593120</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -14742,6 +16083,9 @@
       <c r="I455" t="n">
         <v>789250</v>
       </c>
+      <c r="J455" t="n">
+        <v>789250</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -14766,6 +16110,9 @@
       <c r="I456" t="n">
         <v>789250</v>
       </c>
+      <c r="J456" t="n">
+        <v>789250</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -14790,6 +16137,9 @@
       <c r="I457" t="n">
         <v>789250</v>
       </c>
+      <c r="J457" t="n">
+        <v>789250</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -14814,6 +16164,9 @@
       <c r="I458" t="n">
         <v>789250</v>
       </c>
+      <c r="J458" t="n">
+        <v>789250</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -14838,6 +16191,9 @@
       <c r="I459" t="n">
         <v>517275</v>
       </c>
+      <c r="J459" t="n">
+        <v>517275</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -14862,6 +16218,9 @@
       <c r="I460" t="n">
         <v>517275</v>
       </c>
+      <c r="J460" t="n">
+        <v>517275</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -14886,6 +16245,9 @@
       <c r="I461" t="n">
         <v>517275</v>
       </c>
+      <c r="J461" t="n">
+        <v>517275</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -14910,6 +16272,9 @@
       <c r="I462" t="n">
         <v>766260</v>
       </c>
+      <c r="J462" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -14934,6 +16299,9 @@
       <c r="I463" t="n">
         <v>994400</v>
       </c>
+      <c r="J463" t="n">
+        <v>994400</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -14958,6 +16326,9 @@
       <c r="I464" t="n">
         <v>656579</v>
       </c>
+      <c r="J464" t="n">
+        <v>656579</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -14982,6 +16353,9 @@
       <c r="I465" t="n">
         <v>593120</v>
       </c>
+      <c r="J465" t="n">
+        <v>593120</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -15006,6 +16380,9 @@
       <c r="I466" t="n">
         <v>809681</v>
       </c>
+      <c r="J466" t="n">
+        <v>809681</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -15030,6 +16407,9 @@
       <c r="I467" t="n">
         <v>638639</v>
       </c>
+      <c r="J467" t="n">
+        <v>638639</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -15054,6 +16434,9 @@
       <c r="I468" t="n">
         <v>458713</v>
       </c>
+      <c r="J468" t="n">
+        <v>458713</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -15078,6 +16461,9 @@
       <c r="I469" t="n">
         <v>656579</v>
       </c>
+      <c r="J469" t="n">
+        <v>656579</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -15102,6 +16488,9 @@
       <c r="I470" t="n">
         <v>517275</v>
       </c>
+      <c r="J470" t="n">
+        <v>517275</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -15126,6 +16515,9 @@
       <c r="I471" t="n">
         <v>994400</v>
       </c>
+      <c r="J471" t="n">
+        <v>994400</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
@@ -15150,6 +16542,9 @@
       <c r="I472" t="n">
         <v>955350</v>
       </c>
+      <c r="J472" t="n">
+        <v>955350</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -15174,6 +16569,9 @@
       <c r="I473" t="n">
         <v>770000</v>
       </c>
+      <c r="J473" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -15198,6 +16596,9 @@
       <c r="I474" t="n">
         <v>581590</v>
       </c>
+      <c r="J474" t="n">
+        <v>581590</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -15222,6 +16623,9 @@
       <c r="I475" t="n">
         <v>852610</v>
       </c>
+      <c r="J475" t="n">
+        <v>852610</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -15246,6 +16650,9 @@
       <c r="I476" t="n">
         <v>1120350</v>
       </c>
+      <c r="J476" t="n">
+        <v>1120350</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -15270,6 +16677,9 @@
       <c r="I477" t="n">
         <v>612920</v>
       </c>
+      <c r="J477" t="n">
+        <v>612920</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -15294,6 +16704,9 @@
       <c r="I478" t="n">
         <v>681890</v>
       </c>
+      <c r="J478" t="n">
+        <v>681890</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -15318,6 +16731,9 @@
       <c r="I479" t="n">
         <v>615000</v>
       </c>
+      <c r="J479" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -15342,6 +16758,9 @@
       <c r="I480" t="n">
         <v>770000</v>
       </c>
+      <c r="J480" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -15366,6 +16785,9 @@
       <c r="I481" t="n">
         <v>770000</v>
       </c>
+      <c r="J481" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -15390,6 +16812,9 @@
       <c r="I482" t="n">
         <v>770000</v>
       </c>
+      <c r="J482" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -15414,6 +16839,9 @@
       <c r="I483" t="n">
         <v>770000</v>
       </c>
+      <c r="J483" t="n">
+        <v>770000</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -15438,6 +16866,9 @@
       <c r="I484" t="n">
         <v>423763</v>
       </c>
+      <c r="J484" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -15462,6 +16893,9 @@
       <c r="I485" t="n">
         <v>615000</v>
       </c>
+      <c r="J485" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -15486,6 +16920,9 @@
       <c r="I486" t="n">
         <v>715330</v>
       </c>
+      <c r="J486" t="n">
+        <v>715330</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -15510,6 +16947,9 @@
       <c r="I487" t="n">
         <v>1120350</v>
       </c>
+      <c r="J487" t="n">
+        <v>1120350</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -15534,6 +16974,9 @@
       <c r="I488" t="n">
         <v>1001550</v>
       </c>
+      <c r="J488" t="n">
+        <v>1001550</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -15558,6 +17001,9 @@
       <c r="I489" t="n">
         <v>715330</v>
       </c>
+      <c r="J489" t="n">
+        <v>715330</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -15582,6 +17028,9 @@
       <c r="I490" t="n">
         <v>657030</v>
       </c>
+      <c r="J490" t="n">
+        <v>657030</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -15606,6 +17055,9 @@
       <c r="I491" t="n">
         <v>994400</v>
       </c>
+      <c r="J491" t="n">
+        <v>994400</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -15630,6 +17082,9 @@
       <c r="I492" t="n">
         <v>955350</v>
       </c>
+      <c r="J492" t="n">
+        <v>955350</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -15654,6 +17109,9 @@
       <c r="I493" t="n">
         <v>657030</v>
       </c>
+      <c r="J493" t="n">
+        <v>657030</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -15678,6 +17136,9 @@
       <c r="I494" t="n">
         <v>1001550</v>
       </c>
+      <c r="J494" t="n">
+        <v>1001550</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -15702,6 +17163,9 @@
       <c r="I495" t="n">
         <v>1001550</v>
       </c>
+      <c r="J495" t="n">
+        <v>1001550</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -15726,6 +17190,9 @@
       <c r="I496" t="n">
         <v>687280</v>
       </c>
+      <c r="J496" t="n">
+        <v>687280</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -15750,6 +17217,9 @@
       <c r="I497" t="n">
         <v>1120350</v>
       </c>
+      <c r="J497" t="n">
+        <v>1120350</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -15774,6 +17244,9 @@
       <c r="I498" t="n">
         <v>994400</v>
       </c>
+      <c r="J498" t="n">
+        <v>994400</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -15798,6 +17271,9 @@
       <c r="I499" t="n">
         <v>612920</v>
       </c>
+      <c r="J499" t="n">
+        <v>612920</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -15822,6 +17298,9 @@
       <c r="I500" t="n">
         <v>716439</v>
       </c>
+      <c r="J500" t="n">
+        <v>716439</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -15846,6 +17325,9 @@
       <c r="I501" t="n">
         <v>616538</v>
       </c>
+      <c r="J501" t="n">
+        <v>616538</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -15870,6 +17352,9 @@
       <c r="I502" t="n">
         <v>536172</v>
       </c>
+      <c r="J502" t="n">
+        <v>536172</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -15894,6 +17379,9 @@
       <c r="I503" t="n">
         <v>766260</v>
       </c>
+      <c r="J503" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -15918,6 +17406,9 @@
       <c r="I504" t="n">
         <v>766260</v>
       </c>
+      <c r="J504" t="n">
+        <v>766260</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -15942,6 +17433,9 @@
       <c r="I505" t="n">
         <v>955350</v>
       </c>
+      <c r="J505" t="n">
+        <v>955350</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -15966,6 +17460,9 @@
       <c r="I506" t="n">
         <v>615000</v>
       </c>
+      <c r="J506" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -15990,6 +17487,9 @@
       <c r="I507" t="n">
         <v>615000</v>
       </c>
+      <c r="J507" t="n">
+        <v>615000</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -16014,6 +17514,9 @@
       <c r="I508" t="n">
         <v>715330</v>
       </c>
+      <c r="J508" t="n">
+        <v>715330</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -16038,6 +17541,9 @@
       <c r="I509" t="n">
         <v>423763</v>
       </c>
+      <c r="J509" t="n">
+        <v>423763</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -16062,6 +17568,9 @@
       <c r="I510" t="n">
         <v>1120350</v>
       </c>
+      <c r="J510" t="n">
+        <v>1120350</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -16086,6 +17595,9 @@
       <c r="I511" t="n">
         <v>593120</v>
       </c>
+      <c r="J511" t="n">
+        <v>593120</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -16110,6 +17622,9 @@
       <c r="I512" t="n">
         <v>656579</v>
       </c>
+      <c r="J512" t="n">
+        <v>656579</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -16134,6 +17649,9 @@
       <c r="I513" t="n">
         <v>955350</v>
       </c>
+      <c r="J513" t="n">
+        <v>955350</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -16158,6 +17676,9 @@
       <c r="I514" t="n">
         <v>994400</v>
       </c>
+      <c r="J514" t="n">
+        <v>994400</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -16182,6 +17703,9 @@
       <c r="I515" t="n">
         <v>612953</v>
       </c>
+      <c r="J515" t="n">
+        <v>612953</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -16206,6 +17730,9 @@
       <c r="I516" t="n">
         <v>687280</v>
       </c>
+      <c r="J516" t="n">
+        <v>687280</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -16230,6 +17757,9 @@
       <c r="I517" t="n">
         <v>1001550</v>
       </c>
+      <c r="J517" t="n">
+        <v>1001550</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -16252,6 +17782,9 @@
         <v>955350</v>
       </c>
       <c r="I518" t="n">
+        <v>955350</v>
+      </c>
+      <c r="J518" t="n">
         <v>955350</v>
       </c>
     </row>
